--- a/results/NeuralNetClassifier-estimator_df.xlsx
+++ b/results/NeuralNetClassifier-estimator_df.xlsx
@@ -485,7 +485,7 @@
                 ('model',
                  &lt;class 'skorch.classifier.NeuralNetClassifier'&gt;[initialized](
   module_=TorchMLPClassifier(
-    (fc1): Linear(in_features=39, out_features=4, bias=True)
+    (fc1): Linear(in_features=40, out_features=4, bias=True)
     (relu): ReLU()
     (fc2): Linear(in_features=4, out_features=1, bias=True)
     (softmax): Softmax(dim=1)
@@ -496,20 +496,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.7, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 4, 'model__max_epochs': 200}</t>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.5, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 4, 'model__max_epochs': 200}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6139090581798214</v>
+        <v>0.5838280809243253</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>0.685137924119626</v>
+        <v>0.6793974437005478</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5440917107583775</v>
+        <v>0.5440579710144928</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 1 0 0 0 1 1 0 0 1 1 1 0 1 0 1 0 1 1]</t>
+          <t>[0 1 1 1 0 0 1 0 1 1 1 1 0 1 1 0 1 0 0 0 0 0 0 0]</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,101 @@
                 ('model',
                  &lt;class 'skorch.classifier.NeuralNetClassifier'&gt;[initialized](
   module_=TorchMLPClassifier(
-    (fc1): Linear(in_features=39, out_features=5, bias=True)
+    (fc1): Linear(in_features=40, out_features=3, bias=True)
+    (relu): ReLU()
+    (fc2): Linear(in_features=3, out_features=1, bias=True)
+    (softmax): Softmax(dim=1)
+    (sigmoid): Sigmoid()
+  ),
+))])</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.6, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 3, 'model__max_epochs': 500}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6057850245654794</v>
+      </c>
+      <c r="E3" t="n">
+        <v>69</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5295912271718723</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4298245614035088</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+                ('model',
+                 &lt;class 'skorch.classifier.NeuralNetClassifier'&gt;[initialized](
+  module_=TorchMLPClassifier(
+    (fc1): Linear(in_features=40, out_features=1, bias=True)
+    (relu): ReLU()
+    (fc2): Linear(in_features=1, out_features=1, bias=True)
+    (softmax): Softmax(dim=1)
+    (sigmoid): Sigmoid()
+  ),
+))])</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.5, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 1, 'model__max_epochs': 400}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5588421136453174</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6692209450830141</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5862470862470862</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[1 0 0 0 1 1 0 1 1 1 1 0 0 1 1 1 0 1 0 0 0 0 1 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+                ('model',
+                 &lt;class 'skorch.classifier.NeuralNetClassifier'&gt;[initialized](
+  module_=TorchMLPClassifier(
+    (fc1): Linear(in_features=40, out_features=5, bias=True)
     (relu): ReLU()
     (fc2): Linear(in_features=5, out_features=1, bias=True)
     (softmax): Softmax(dim=1)
@@ -541,45 +635,45 @@
 ))])</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.5, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 5, 'model__max_epochs': 300}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5915642161341448</v>
-      </c>
-      <c r="E3" t="n">
-        <v>69</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.7120546074055069</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 1 1 1 0 0 0 1]</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.7, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 5, 'model__max_epochs': 400}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5708510950021247</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.685137924119626</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4895104895104894</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0]</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
                 ('model',
                  &lt;class 'skorch.classifier.NeuralNetClassifier'&gt;[initialized](
   module_=TorchMLPClassifier(
-    (fc1): Linear(in_features=39, out_features=3, bias=True)
+    (fc1): Linear(in_features=40, out_features=3, bias=True)
     (relu): ReLU()
     (fc2): Linear(in_features=3, out_features=1, bias=True)
     (softmax): Softmax(dim=1)
@@ -588,116 +682,22 @@
 ))])</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.5, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 3, 'model__max_epochs': 200}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5372148118031144</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6585769331638726</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5440917107583775</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 1 1 0 1 1 1 1 0 1 0 1 1 0 0 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 &lt;class 'skorch.classifier.NeuralNetClassifier'&gt;[initialized](
-  module_=TorchMLPClassifier(
-    (fc1): Linear(in_features=39, out_features=4, bias=True)
-    (relu): ReLU()
-    (fc2): Linear(in_features=4, out_features=1, bias=True)
-    (softmax): Softmax(dim=1)
-    (sigmoid): Sigmoid()
-  ),
-))])</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.6, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 4, 'model__max_epochs': 300}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.587780362441286</v>
-      </c>
-      <c r="E5" t="n">
-        <v>99</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6318697729988052</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[1 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 1 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 &lt;class 'skorch.classifier.NeuralNetClassifier'&gt;[initialized](
-  module_=TorchMLPClassifier(
-    (fc1): Linear(in_features=39, out_features=3, bias=True)
-    (relu): ReLU()
-    (fc2): Linear(in_features=3, out_features=1, bias=True)
-    (softmax): Softmax(dim=1)
-    (sigmoid): Sigmoid()
-  ),
-))])</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.5, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 3, 'model__max_epochs': 300}</t>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__optimizer__lr': 0.7, 'model__optimizer': &lt;class 'torch.optim.adam.Adam'&gt;, 'model__module__hidden_size': 3, 'model__max_epochs': 300}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5705777178206846</v>
+        <v>0.6064671482628139</v>
       </c>
       <c r="E6" t="n">
         <v>89</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7541778297580303</v>
+        <v>0.6905615292712067</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5862470862470862</v>
+        <v>0.6269565217391304</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 0 1 0 1 0 1 1 0 1 1 0 1 0 1 1 0 1 0 0]</t>
+          <t>[0 0 1 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 0 0 1]</t>
         </is>
       </c>
     </row>
